--- a/Sprint -3 Today/Agile Task Board/Task Board - Team B - Sprint 3.xlsx
+++ b/Sprint -3 Today/Agile Task Board/Task Board - Team B - Sprint 3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Akhil" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="86">
   <si>
     <t>Agile Task Board</t>
   </si>
@@ -121,9 +121,6 @@
     <t>UI - Create Angular Component &amp; Template for "Uploading Orders Page" using Bootstrap &amp; Angular</t>
   </si>
   <si>
-    <t>UI - Create Angular Component &amp; Template for "Uploading Return Page" using Bootstrap &amp; Angular</t>
-  </si>
-  <si>
     <t>UI - Create Angular Component &amp; Template for "Edit  OfflineOrder Page" using Bootstrap &amp; Angular</t>
   </si>
   <si>
@@ -148,16 +145,10 @@
     <t>UI - Create Angular Component &amp; Template for "Delete OfflineOrderDetail Page" using Bootstrap &amp; Angular</t>
   </si>
   <si>
-    <t>UI - Create Angular Component &amp; Template for "Updating Return Page" using Bootstrap &amp; Angular</t>
-  </si>
-  <si>
     <t>UI - Create OfflineOrder service using Angular for CRUD operations</t>
   </si>
   <si>
     <t>Create SQL Server table named "Offline Return"</t>
-  </si>
-  <si>
-    <t>UI - Create offline return service using Angular for CRUD operations</t>
   </si>
   <si>
     <t>Chennareddy Sravani</t>
@@ -904,7 +895,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1014,7 +1005,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1067,10 +1058,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32:D35"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1125,12 +1116,12 @@
     </row>
     <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B8" s="2">
         <v>0.5</v>
@@ -1161,7 +1152,7 @@
         <v>1.5</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1178,7 +1169,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
@@ -1202,7 +1193,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
@@ -1213,7 +1204,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
@@ -1224,12 +1215,12 @@
     </row>
     <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" s="21">
         <v>0.5</v>
@@ -1273,7 +1264,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B23" s="21">
         <v>1</v>
@@ -1282,12 +1273,12 @@
         <v>1</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" s="21">
         <v>2</v>
@@ -1299,7 +1290,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" s="21">
         <v>1</v>
@@ -1314,12 +1305,12 @@
     </row>
     <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B28" s="21">
         <v>0.5</v>
@@ -1361,53 +1352,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="21">
-        <v>1</v>
-      </c>
-      <c r="C32" s="21">
-        <v>1</v>
-      </c>
-      <c r="D32" s="29" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="21">
-        <v>2</v>
-      </c>
-      <c r="C33" s="21">
-        <v>2</v>
-      </c>
-      <c r="D33" s="29"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="21">
-        <v>2</v>
-      </c>
-      <c r="C34" s="21">
-        <v>2</v>
-      </c>
-      <c r="D34" s="29"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D35" s="29"/>
-    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D10:D13"/>
     <mergeCell ref="D23:D26"/>
-    <mergeCell ref="D32:D35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1440,7 +1389,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1448,7 +1397,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1472,12 +1421,12 @@
     </row>
     <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B8" s="2">
         <v>0.5</v>
@@ -1488,7 +1437,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B9" s="2">
         <v>2</v>
@@ -1530,12 +1479,12 @@
         <v>2</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B13" s="2">
         <v>2</v>
@@ -1547,7 +1496,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
@@ -1559,7 +1508,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
@@ -1571,7 +1520,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B16" s="2">
         <v>2</v>
@@ -1583,7 +1532,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B17" s="21">
         <v>2</v>
@@ -1595,7 +1544,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B18" s="21">
         <v>2</v>
@@ -1646,7 +1595,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1654,7 +1603,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1678,12 +1627,12 @@
     </row>
     <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
@@ -1736,12 +1685,12 @@
         <v>3</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B13" s="2">
         <v>4</v>
@@ -1753,7 +1702,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B14" s="2">
         <v>4</v>
@@ -1765,7 +1714,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B15" s="2">
         <v>4</v>
@@ -1777,7 +1726,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B16" s="2">
         <v>2</v>
@@ -1799,8 +1748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1824,17 +1773,17 @@
         <v>2</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="9"/>
@@ -1857,7 +1806,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>4</v>
@@ -1868,14 +1817,14 @@
     </row>
     <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1887,7 +1836,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -1899,7 +1848,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -1911,7 +1860,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -1923,7 +1872,7 @@
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B12" s="21">
         <v>2</v>
@@ -1935,7 +1884,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -1947,7 +1896,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -1959,7 +1908,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -1968,12 +1917,12 @@
         <v>5</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B16" s="27">
         <v>4</v>
@@ -1985,7 +1934,7 @@
     </row>
     <row r="17" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B17" s="27">
         <v>2</v>
@@ -2035,7 +1984,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C2" s="19"/>
     </row>
@@ -2044,7 +1993,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C3" s="19"/>
     </row>
@@ -2075,14 +2024,14 @@
     </row>
     <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B8" s="19">
         <v>0.5</v>
@@ -2137,7 +2086,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B13" s="19">
         <v>2</v>
@@ -2149,7 +2098,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B14" s="19">
         <v>2</v>
@@ -2161,7 +2110,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B15" s="19">
         <v>2</v>
@@ -2173,7 +2122,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B16" s="19">
         <v>1</v>
